--- a/wurth_safety_glove_MASTER List.xlsx
+++ b/wurth_safety_glove_MASTER List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://witglobal-my.sharepoint.com/personal/wn00049339_wgs_wuerth_com/Documents/Desktop/Glove Finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="663" documentId="11_A51A7CCB8AA1ADB4569DF285DBFC2C4940A60F89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F32652-F583-4F37-ACF1-08C75E40C58D}"/>
+  <xr:revisionPtr revIDLastSave="667" documentId="11_A51A7CCB8AA1ADB4569DF285DBFC2C4940A60F89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC61386-FCF1-4ACD-9FE1-DF46CD998F4E}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="1608" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13605" yWindow="1620" windowWidth="30150" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="182">
   <si>
     <t>Glove Name</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>3X43E</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Chemical Resistance</t>
@@ -683,7 +680,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,7 +703,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2784,8 +2780,8 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2815,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -2842,16 +2838,16 @@
         <v>129</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>3</v>
@@ -2865,9 +2861,9 @@
         <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>171</v>
+      </c>
+      <c r="D2"/>
       <c r="E2" s="4" t="s">
         <v>134</v>
       </c>
@@ -2891,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>100</v>
@@ -2908,9 +2904,9 @@
         <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="D3"/>
       <c r="E3" s="4">
         <v>4121</v>
       </c>
@@ -2926,11 +2922,8 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>99</v>
@@ -2944,9 +2937,9 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="D4"/>
       <c r="E4" s="4" t="s">
         <v>138</v>
       </c>
@@ -2977,29 +2970,14 @@
         <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="D5"/>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>104</v>
@@ -3013,32 +2991,17 @@
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="D6"/>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>102</v>
@@ -3052,26 +3015,11 @@
         <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="D7"/>
       <c r="E7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>115</v>
@@ -3085,26 +3033,11 @@
         <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="D8"/>
       <c r="E8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>107</v>
@@ -3118,9 +3051,9 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="D9"/>
       <c r="E9" s="4" t="s">
         <v>139</v>
       </c>
@@ -3151,9 +3084,9 @@
         <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>177</v>
+      </c>
+      <c r="D10"/>
       <c r="E10" s="4" t="s">
         <v>140</v>
       </c>
@@ -3173,7 +3106,7 @@
         <v>130</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>83</v>
@@ -3187,9 +3120,9 @@
         <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>178</v>
+      </c>
+      <c r="D11"/>
       <c r="E11" s="4" t="s">
         <v>141</v>
       </c>
@@ -3209,7 +3142,7 @@
         <v>131</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>88</v>
@@ -3223,9 +3156,9 @@
         <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>178</v>
+      </c>
+      <c r="D12"/>
       <c r="E12" s="4" t="s">
         <v>142</v>
       </c>
@@ -3245,7 +3178,7 @@
         <v>132</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>89</v>
@@ -3259,9 +3192,9 @@
         <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>178</v>
+      </c>
+      <c r="D13"/>
       <c r="E13" s="4" t="s">
         <v>143</v>
       </c>
@@ -3281,10 +3214,10 @@
         <v>130</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>92</v>
@@ -3298,26 +3231,11 @@
         <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>177</v>
+      </c>
+      <c r="D14"/>
       <c r="E14" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>109</v>
@@ -3331,9 +3249,9 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="D15"/>
       <c r="E15" s="4" t="s">
         <v>144</v>
       </c>
@@ -3364,9 +3282,9 @@
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="D16"/>
       <c r="E16" s="4" t="s">
         <v>144</v>
       </c>
@@ -3397,7 +3315,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>145</v>
@@ -3429,7 +3347,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>146</v>
@@ -3445,9 +3363,6 @@
       </c>
       <c r="I18" s="3">
         <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>66</v>
@@ -3461,7 +3376,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>147</v>
@@ -3477,9 +3392,6 @@
       </c>
       <c r="I19" s="3">
         <v>2</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>93</v>
@@ -3493,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>139</v>
@@ -3514,7 +3426,7 @@
         <v>130</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>113</v>
@@ -3528,7 +3440,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>139</v>
@@ -3560,7 +3472,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>148</v>
@@ -3592,7 +3504,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>149</v>
@@ -3624,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>145</v>
@@ -3656,7 +3568,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>150</v>
@@ -3688,7 +3600,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>151</v>
@@ -3720,7 +3632,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>151</v>
@@ -3752,7 +3664,7 @@
         <v>120</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="4" t="s">
@@ -3785,7 +3697,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>153</v>
@@ -3817,7 +3729,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>154</v>
@@ -3849,7 +3761,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>155</v>
@@ -3870,7 +3782,7 @@
         <v>136</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>45</v>
@@ -3884,7 +3796,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>156</v>
@@ -3908,7 +3820,7 @@
         <v>135</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>76</v>
@@ -3922,7 +3834,7 @@
         <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>155</v>
@@ -3954,7 +3866,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>157</v>
@@ -3975,10 +3887,10 @@
         <v>136</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>48</v>
@@ -3992,7 +3904,7 @@
         <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>158</v>
@@ -4013,7 +3925,7 @@
         <v>136</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>52</v>
@@ -4021,13 +3933,13 @@
     </row>
     <row r="36" spans="1:16" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>159</v>
@@ -4048,7 +3960,7 @@
         <v>136</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>90</v>
@@ -4062,7 +3974,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>160</v>
@@ -4094,7 +4006,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>161</v>
@@ -4126,7 +4038,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>162</v>
@@ -4147,10 +4059,10 @@
         <v>137</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>58</v>
@@ -4164,7 +4076,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>163</v>
@@ -4196,7 +4108,7 @@
         <v>63</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>148</v>
